--- a/TP2/1.Datos/LC.xlsx
+++ b/TP2/1.Datos/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OperaDownload\Laboratorio Electronica\lab-electronica\TP2\1.Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FA0DDC-E369-4132-B29E-54BC0B9AE1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA4317-0A32-4E50-A3E0-AE4D2DCA9820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{E00BE3E8-5786-4D69-AFA6-9A9995C46107}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Ls</t>
   </si>
@@ -63,55 +63,7 @@
     <t>Cs</t>
   </si>
   <si>
-    <t>ie-9f</t>
-  </si>
-  <si>
-    <t>e6ode-6lo</t>
-  </si>
-  <si>
-    <t>.32n</t>
-  </si>
-  <si>
-    <t>4.16n</t>
-  </si>
-  <si>
-    <t>117n</t>
-  </si>
-  <si>
-    <t>9.3n</t>
-  </si>
-  <si>
-    <t>48.2n</t>
-  </si>
-  <si>
-    <t>12.5n</t>
-  </si>
-  <si>
-    <t>34n</t>
-  </si>
-  <si>
-    <t>15.4n</t>
-  </si>
-  <si>
-    <t>26.4n</t>
-  </si>
-  <si>
-    <t>16.77n</t>
-  </si>
-  <si>
-    <t>23.6n</t>
-  </si>
-  <si>
-    <t>36.36n</t>
-  </si>
-  <si>
-    <t>6.97n</t>
-  </si>
-  <si>
-    <t>28n</t>
-  </si>
-  <si>
-    <t>11.11n</t>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1605,7 @@
         <v>0.63</v>
       </c>
       <c r="K39">
-        <f>O39*(-1)</f>
+        <f t="shared" ref="K39:K45" si="0">O39*(-1)</f>
         <v>-1.18E-2</v>
       </c>
       <c r="O39" s="1">
@@ -1686,7 +1638,7 @@
         <v>0.34</v>
       </c>
       <c r="K40">
-        <f>O40*(-1)</f>
+        <f t="shared" si="0"/>
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="O40" s="1">
@@ -1719,7 +1671,7 @@
         <v>0.16</v>
       </c>
       <c r="K41">
-        <f>O41*(-1)</f>
+        <f t="shared" si="0"/>
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="O41" s="1">
@@ -1752,7 +1704,7 @@
         <v>0.08</v>
       </c>
       <c r="K42">
-        <f>O42*(-1)</f>
+        <f t="shared" si="0"/>
         <v>-1.8E-3</v>
       </c>
       <c r="O42" s="1">
@@ -1785,7 +1737,7 @@
         <v>0.03</v>
       </c>
       <c r="K43">
-        <f>O43*(-1)</f>
+        <f t="shared" si="0"/>
         <v>-5.0000000000000001E-4</v>
       </c>
       <c r="O43" s="1">
@@ -1818,7 +1770,7 @@
         <v>0.17</v>
       </c>
       <c r="K44">
-        <f>O44*(-1)</f>
+        <f t="shared" si="0"/>
         <v>-1.2999999999999999E-4</v>
       </c>
       <c r="O44" s="1">
@@ -1851,7 +1803,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="K45">
-        <f>O45*(-1)</f>
+        <f t="shared" si="0"/>
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="O45" s="1">
@@ -1867,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C48A329-5B62-4B04-8CE8-D5F7ABFEC796}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2493,8 +2445,8 @@
       <c r="D25">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
+      <c r="E25" s="1">
+        <v>3.1999999999999998E-10</v>
       </c>
       <c r="F25" s="1">
         <v>-1.5999999999999999E-6</v>
@@ -2510,11 +2462,11 @@
       <c r="D26">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
+      <c r="E26" s="1">
+        <v>4.1599999999999997E-9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.17E-7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2527,11 +2479,11 @@
       <c r="D27">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
+      <c r="E27" s="1">
+        <v>9.3000000000000006E-9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.8200000000000001E-8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2547,11 +2499,11 @@
       <c r="D28">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
+      <c r="E28" s="1">
+        <v>1.2499999999999999E-8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.4E-8</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -2573,11 +2525,11 @@
       <c r="D29">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
+      <c r="E29" s="1">
+        <v>1.5399999999999999E-8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.6400000000000001E-8</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -2599,11 +2551,11 @@
       <c r="D30">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
+      <c r="E30" s="1">
+        <v>1.6770000000000001E-8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.36E-8</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -2625,11 +2577,11 @@
       <c r="D31">
         <v>0.16</v>
       </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
+      <c r="E31" s="1">
+        <v>3.6360000000000003E-8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6.9699999999999997E-9</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -2651,11 +2603,11 @@
       <c r="D32">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
+      <c r="E32" s="1">
+        <v>2.7999999999999999E-8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.111E-8</v>
       </c>
       <c r="G32">
         <v>10</v>

--- a/TP2/1.Datos/LC.xlsx
+++ b/TP2/1.Datos/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OperaDownload\Laboratorio Electronica\lab-electronica\TP2\1.Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA4317-0A32-4E50-A3E0-AE4D2DCA9820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2734F-809F-4B59-919E-4D44D89D37E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{E00BE3E8-5786-4D69-AFA6-9A9995C46107}"/>
   </bookViews>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C48A329-5B62-4B04-8CE8-D5F7ABFEC796}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,54 +2566,54 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>10000000</v>
+        <v>9000000</v>
       </c>
       <c r="B31" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="C31">
-        <v>85.95</v>
+        <v>84.16</v>
       </c>
       <c r="D31">
-        <v>0.16</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>3.6360000000000003E-8</v>
+        <v>2.7999999999999999E-8</v>
       </c>
       <c r="F31" s="1">
-        <v>6.9699999999999997E-9</v>
+        <v>1.111E-8</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>7.0000000000000007E-2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>9000000</v>
+        <v>10000000</v>
       </c>
       <c r="B32" s="1">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C32">
-        <v>84.16</v>
+        <v>85.95</v>
       </c>
       <c r="D32">
-        <v>0.16200000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E32" s="1">
-        <v>2.7999999999999999E-8</v>
+        <v>3.6360000000000003E-8</v>
       </c>
       <c r="F32" s="1">
-        <v>1.111E-8</v>
+        <v>6.9699999999999997E-9</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H32">
-        <v>0.10199999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
